--- a/Crawling/crawling_data/day_genie/day_genie_20220103.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220103.xlsx
@@ -202,8 +202,7 @@
     <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>밝게 빛나는 별이 되어 비춰줄게</t>
